--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efnb3</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -546,10 +546,10 @@
         <v>0.45995</v>
       </c>
       <c r="I2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J2">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N2">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O2">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P2">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q2">
-        <v>0.03523789382222223</v>
+        <v>0.03200935145555556</v>
       </c>
       <c r="R2">
-        <v>0.3171410444</v>
+        <v>0.2880841631</v>
       </c>
       <c r="S2">
-        <v>0.002783261166061172</v>
+        <v>0.002506701872839052</v>
       </c>
       <c r="T2">
-        <v>0.002783261166061172</v>
+        <v>0.002506701872839052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -608,10 +608,10 @@
         <v>0.45995</v>
       </c>
       <c r="I3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J3">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>25.337258</v>
       </c>
       <c r="O3">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P3">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q3">
         <v>1.294874646344445</v>
@@ -638,10 +638,10 @@
         <v>11.6538718171</v>
       </c>
       <c r="S3">
-        <v>0.102275531456846</v>
+        <v>0.1014036384207988</v>
       </c>
       <c r="T3">
-        <v>0.102275531456846</v>
+        <v>0.1014036384207988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.45995</v>
       </c>
       <c r="I4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J4">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N4">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O4">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P4">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q4">
-        <v>0.006471394288888891</v>
+        <v>0.00900111928888889</v>
       </c>
       <c r="R4">
-        <v>0.05824254860000001</v>
+        <v>0.08101007360000001</v>
       </c>
       <c r="S4">
-        <v>0.0005111423658123342</v>
+        <v>0.0007048915880233941</v>
       </c>
       <c r="T4">
-        <v>0.0005111423658123341</v>
+        <v>0.000704891588023394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -732,10 +732,10 @@
         <v>0.45995</v>
       </c>
       <c r="I5">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J5">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N5">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O5">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P5">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q5">
-        <v>0.07671654256111111</v>
+        <v>0.07043664078888889</v>
       </c>
       <c r="R5">
-        <v>0.6904488830500001</v>
+        <v>0.6339297671</v>
       </c>
       <c r="S5">
-        <v>0.006059447672498668</v>
+        <v>0.005516002397835365</v>
       </c>
       <c r="T5">
-        <v>0.006059447672498668</v>
+        <v>0.005516002397835364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +794,10 @@
         <v>0.45995</v>
       </c>
       <c r="I6">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964018</v>
       </c>
       <c r="J6">
-        <v>0.1117088182569538</v>
+        <v>0.1101680340964017</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N6">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O6">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P6">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q6">
-        <v>0.001005706227777778</v>
+        <v>0.0004699155833333334</v>
       </c>
       <c r="R6">
-        <v>0.009051356050000001</v>
+        <v>0.00422924025</v>
       </c>
       <c r="S6">
-        <v>7.943559573570555E-05</v>
+        <v>3.679981690517753E-05</v>
       </c>
       <c r="T6">
-        <v>7.943559573570555E-05</v>
+        <v>3.679981690517753E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.867988</v>
       </c>
       <c r="I7">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J7">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N7">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O7">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P7">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q7">
-        <v>0.2197235713173334</v>
+        <v>0.1995922075493334</v>
       </c>
       <c r="R7">
-        <v>1.977512141856</v>
+        <v>1.796329867944</v>
       </c>
       <c r="S7">
-        <v>0.01735484210268388</v>
+        <v>0.01563037480352197</v>
       </c>
       <c r="T7">
-        <v>0.01735484210268388</v>
+        <v>0.01563037480352196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.867988</v>
       </c>
       <c r="I8">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J8">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.337258</v>
       </c>
       <c r="O8">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P8">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q8">
         <v>8.074105766322669</v>
@@ -948,10 +948,10 @@
         <v>72.66695189690401</v>
       </c>
       <c r="S8">
-        <v>0.6377323554991993</v>
+        <v>0.6322957237682137</v>
       </c>
       <c r="T8">
-        <v>0.6377323554991994</v>
+        <v>0.6322957237682136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.867988</v>
       </c>
       <c r="I9">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J9">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N9">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O9">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P9">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q9">
-        <v>0.04035195382933335</v>
+        <v>0.05612588782933334</v>
       </c>
       <c r="R9">
-        <v>0.3631675844640001</v>
+        <v>0.5051329904640001</v>
       </c>
       <c r="S9">
-        <v>0.003187194632984857</v>
+        <v>0.00439530517611053</v>
       </c>
       <c r="T9">
-        <v>0.003187194632984857</v>
+        <v>0.004395305176110529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>2.867988</v>
       </c>
       <c r="I10">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J10">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N10">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O10">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P10">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q10">
-        <v>0.4783609598146668</v>
+        <v>0.4392030449893334</v>
       </c>
       <c r="R10">
-        <v>4.305248638332</v>
+        <v>3.952827404904001</v>
       </c>
       <c r="S10">
-        <v>0.03778328777335387</v>
+        <v>0.03439467047497131</v>
       </c>
       <c r="T10">
-        <v>0.03778328777335387</v>
+        <v>0.03439467047497131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>2.867988</v>
       </c>
       <c r="I11">
-        <v>0.6965529954454279</v>
+        <v>0.6869455370628789</v>
       </c>
       <c r="J11">
-        <v>0.6965529954454278</v>
+        <v>0.6869455370628788</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N11">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O11">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P11">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q11">
-        <v>0.006271015094666667</v>
+        <v>0.002930127740000001</v>
       </c>
       <c r="R11">
-        <v>0.05643913585200001</v>
+        <v>0.02637114966</v>
       </c>
       <c r="S11">
-        <v>0.0004953154372059021</v>
+        <v>0.0002294628400614117</v>
       </c>
       <c r="T11">
-        <v>0.0004953154372059022</v>
+        <v>0.0002294628400614117</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H12">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I12">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J12">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2298373333333333</v>
+        <v>0.2087793333333333</v>
       </c>
       <c r="N12">
-        <v>0.689512</v>
+        <v>0.626338</v>
       </c>
       <c r="O12">
-        <v>0.02491532190107932</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="P12">
-        <v>0.02491532190107933</v>
+        <v>0.02275344108115409</v>
       </c>
       <c r="Q12">
-        <v>0.06048269022844444</v>
+        <v>0.02641336939111111</v>
       </c>
       <c r="R12">
-        <v>0.544344212056</v>
+        <v>0.23772032452</v>
       </c>
       <c r="S12">
-        <v>0.004777218632334277</v>
+        <v>0.002068471853065189</v>
       </c>
       <c r="T12">
-        <v>0.004777218632334278</v>
+        <v>0.002068471853065189</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H13">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I13">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J13">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.337258</v>
       </c>
       <c r="O13">
-        <v>0.9155546809347732</v>
+        <v>0.9204452022087118</v>
       </c>
       <c r="P13">
-        <v>0.9155546809347734</v>
+        <v>0.920445202208712</v>
       </c>
       <c r="Q13">
-        <v>2.222536412494889</v>
+        <v>1.068500322368889</v>
       </c>
       <c r="R13">
-        <v>20.002827712454</v>
+        <v>9.616502901320001</v>
       </c>
       <c r="S13">
-        <v>0.175546793978728</v>
+        <v>0.08367591461295786</v>
       </c>
       <c r="T13">
-        <v>0.1755467939787281</v>
+        <v>0.08367591461295787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H14">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I14">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J14">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04220933333333334</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N14">
-        <v>0.126628</v>
+        <v>0.176128</v>
       </c>
       <c r="O14">
-        <v>0.004575667111942756</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="P14">
-        <v>0.004575667111942757</v>
+        <v>0.006398331365399365</v>
       </c>
       <c r="Q14">
-        <v>0.01110756897377778</v>
+        <v>0.007427513457777779</v>
       </c>
       <c r="R14">
-        <v>0.09996812076400002</v>
+        <v>0.06684762112000001</v>
       </c>
       <c r="S14">
-        <v>0.0008773301131455651</v>
+        <v>0.000581660078961624</v>
       </c>
       <c r="T14">
-        <v>0.0008773301131455653</v>
+        <v>0.000581660078961624</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H15">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I15">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J15">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5003796666666667</v>
+        <v>0.4594193333333333</v>
       </c>
       <c r="N15">
-        <v>1.501139</v>
+        <v>1.378258</v>
       </c>
       <c r="O15">
-        <v>0.05424323493030479</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="P15">
-        <v>0.0542432349303048</v>
+        <v>0.05006899181852175</v>
       </c>
       <c r="Q15">
-        <v>0.1316770775952222</v>
+        <v>0.05812267125777778</v>
       </c>
       <c r="R15">
-        <v>1.185093698357</v>
+        <v>0.52310404132</v>
       </c>
       <c r="S15">
-        <v>0.01040049948445225</v>
+        <v>0.00455167637802899</v>
       </c>
       <c r="T15">
-        <v>0.01040049948445226</v>
+        <v>0.00455167637802899</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2631543333333333</v>
+        <v>0.1265133333333333</v>
       </c>
       <c r="H16">
-        <v>0.789463</v>
+        <v>0.37954</v>
       </c>
       <c r="I16">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="J16">
-        <v>0.1917381862976183</v>
+        <v>0.09090808927263468</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.006559666666666666</v>
+        <v>0.003065</v>
       </c>
       <c r="N16">
-        <v>0.019679</v>
+        <v>0.009195</v>
       </c>
       <c r="O16">
-        <v>0.0007110951218997493</v>
+        <v>0.0003340335262130221</v>
       </c>
       <c r="P16">
-        <v>0.0007110951218997495</v>
+        <v>0.0003340335262130222</v>
       </c>
       <c r="Q16">
-        <v>0.001726204708555555</v>
+        <v>0.0003877633666666667</v>
       </c>
       <c r="R16">
-        <v>0.015535842377</v>
+        <v>0.0034898703</v>
       </c>
       <c r="S16">
-        <v>0.0001363440889581417</v>
+        <v>3.036634962102637E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001363440889581418</v>
+        <v>3.036634962102637E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.155836</v>
+      </c>
+      <c r="H17">
+        <v>0.467508</v>
+      </c>
+      <c r="I17">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J17">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2087793333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.626338</v>
+      </c>
+      <c r="O17">
+        <v>0.02275344108115409</v>
+      </c>
+      <c r="P17">
+        <v>0.02275344108115409</v>
+      </c>
+      <c r="Q17">
+        <v>0.03253533618933333</v>
+      </c>
+      <c r="R17">
+        <v>0.292818025704</v>
+      </c>
+      <c r="S17">
+        <v>0.002547892551727883</v>
+      </c>
+      <c r="T17">
+        <v>0.002547892551727882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.155836</v>
+      </c>
+      <c r="H18">
+        <v>0.467508</v>
+      </c>
+      <c r="I18">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J18">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>8.445752666666667</v>
+      </c>
+      <c r="N18">
+        <v>25.337258</v>
+      </c>
+      <c r="O18">
+        <v>0.9204452022087118</v>
+      </c>
+      <c r="P18">
+        <v>0.920445202208712</v>
+      </c>
+      <c r="Q18">
+        <v>1.316152312562667</v>
+      </c>
+      <c r="R18">
+        <v>11.845370813064</v>
+      </c>
+      <c r="S18">
+        <v>0.1030699254067416</v>
+      </c>
+      <c r="T18">
+        <v>0.1030699254067416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.155836</v>
+      </c>
+      <c r="H19">
+        <v>0.467508</v>
+      </c>
+      <c r="I19">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J19">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.176128</v>
+      </c>
+      <c r="O19">
+        <v>0.006398331365399365</v>
+      </c>
+      <c r="P19">
+        <v>0.006398331365399365</v>
+      </c>
+      <c r="Q19">
+        <v>0.009149027669333334</v>
+      </c>
+      <c r="R19">
+        <v>0.082341249024</v>
+      </c>
+      <c r="S19">
+        <v>0.0007164745223038176</v>
+      </c>
+      <c r="T19">
+        <v>0.0007164745223038175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.155836</v>
+      </c>
+      <c r="H20">
+        <v>0.467508</v>
+      </c>
+      <c r="I20">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J20">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4594193333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.378258</v>
+      </c>
+      <c r="O20">
+        <v>0.05006899181852175</v>
+      </c>
+      <c r="P20">
+        <v>0.05006899181852175</v>
+      </c>
+      <c r="Q20">
+        <v>0.07159407122933334</v>
+      </c>
+      <c r="R20">
+        <v>0.644346641064</v>
+      </c>
+      <c r="S20">
+        <v>0.005606642567686087</v>
+      </c>
+      <c r="T20">
+        <v>0.005606642567686086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.155836</v>
+      </c>
+      <c r="H21">
+        <v>0.467508</v>
+      </c>
+      <c r="I21">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="J21">
+        <v>0.1119783395680848</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.003065</v>
+      </c>
+      <c r="N21">
+        <v>0.009195</v>
+      </c>
+      <c r="O21">
+        <v>0.0003340335262130221</v>
+      </c>
+      <c r="P21">
+        <v>0.0003340335262130222</v>
+      </c>
+      <c r="Q21">
+        <v>0.00047763734</v>
+      </c>
+      <c r="R21">
+        <v>0.00429873606</v>
+      </c>
+      <c r="S21">
+        <v>3.740451962540654E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.740451962540654E-05</v>
       </c>
     </row>
   </sheetData>
